--- a/201711 DIARY/20171114 FOOD DIARY.xlsx
+++ b/201711 DIARY/20171114 FOOD DIARY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoledi_rebecca/Downloads/drive-download-20171115T075418Z-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoledi_rebecca/Desktop/Eat-Diary/201711 DIARY/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -817,7 +817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1046,8 +1046,7 @@
       <c r="H6" s="17">
         <v>0.23</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17">
+      <c r="I6" s="17">
         <v>3.1972999999999998</v>
       </c>
       <c r="K6" s="9"/>
